--- a/Svr.Web/wwwroot/Templates/0901.xlsx
+++ b/Svr.Web/wwwroot/Templates/0901.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="ИТОГ" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <t>Формализованный документ 0901</t>
   </si>
@@ -434,20 +434,17 @@
   <si>
     <t>16.6</t>
   </si>
-  <si>
-    <t>16.7</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,7 +781,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -988,6 +985,9 @@
     <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,12 +1140,6 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1264,6 +1258,12 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1631,7 +1631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1663,9 +1663,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1697,6 +1698,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1872,519 +1874,519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:GA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="73" customWidth="1"/>
-    <col min="2" max="2" width="73" style="73" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="73" customWidth="1"/>
-    <col min="4" max="4" width="14" style="78" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="73" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="78" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="73" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="78" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="73" customWidth="1"/>
-    <col min="10" max="10" width="14" style="78" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="73" customWidth="1"/>
-    <col min="12" max="12" width="14" style="78" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="73" customWidth="1"/>
-    <col min="14" max="14" width="14" style="78" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="73" customWidth="1"/>
-    <col min="16" max="16" width="14" style="78" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="73" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="78" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="73" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="78" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="73" customWidth="1"/>
-    <col min="22" max="22" width="14" style="78" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="73" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" style="78" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="73" customWidth="1"/>
-    <col min="26" max="26" width="14" style="78" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="73" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" style="78" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="73" customWidth="1"/>
-    <col min="30" max="30" width="14" style="78" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" style="73" customWidth="1"/>
-    <col min="32" max="32" width="14" style="78" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="73"/>
+    <col min="1" max="1" width="10.85546875" style="74" customWidth="1"/>
+    <col min="2" max="2" width="73" style="74" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="74" customWidth="1"/>
+    <col min="4" max="4" width="14" style="79" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="74" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="79" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="74" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="79" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
+    <col min="10" max="10" width="14" style="79" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="74" customWidth="1"/>
+    <col min="12" max="12" width="14" style="79" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="74" customWidth="1"/>
+    <col min="14" max="14" width="14" style="79" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="74" customWidth="1"/>
+    <col min="16" max="16" width="14" style="79" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="74" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="79" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="74" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="79" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="74" customWidth="1"/>
+    <col min="22" max="22" width="14" style="79" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="74" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" style="79" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="74" customWidth="1"/>
+    <col min="26" max="26" width="14" style="79" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="74" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" style="79" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="74" customWidth="1"/>
+    <col min="30" max="30" width="14" style="79" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="74" customWidth="1"/>
+    <col min="32" max="32" width="14" style="79" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="121" t="s">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="122" t="s">
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="89"/>
-    </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="90"/>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="121" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="124" t="s">
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="89"/>
-    </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="123" t="s">
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="90"/>
+    </row>
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="127" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="124" t="s">
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="91" t="s">
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="123"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="89"/>
-    </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A4" s="123" t="s">
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="90"/>
+    </row>
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="91"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="89"/>
-    </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="130" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="90"/>
+    </row>
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="122"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="124" t="s">
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="Y5" s="124"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="89"/>
-    </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="131" t="s">
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="90"/>
+    </row>
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="124"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="101" t="s">
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="91"/>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="89"/>
-    </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="89"/>
-    </row>
-    <row r="8" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A8" s="132"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="89"/>
-    </row>
-    <row r="9" spans="1:32" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="136" t="s">
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="90"/>
+    </row>
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="90"/>
+    </row>
+    <row r="8" spans="1:32" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="131"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="90"/>
+    </row>
+    <row r="9" spans="1:32" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="132"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="AF9" s="136"/>
-    </row>
-    <row r="10" spans="1:32" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A10" s="137" t="s">
+      <c r="AF9" s="135"/>
+    </row>
+    <row r="10" spans="1:32" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="139" t="s">
+      <c r="D10" s="137"/>
+      <c r="E10" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="139" t="s">
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="140"/>
-      <c r="S10" s="140"/>
-      <c r="T10" s="140"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="140"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="142" t="s">
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="140"/>
+      <c r="AC10" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="146" t="s">
+      <c r="AD10" s="142"/>
+      <c r="AE10" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="AF10" s="147"/>
-    </row>
-    <row r="11" spans="1:32" s="1" customFormat="1" ht="179.25" customHeight="1">
-      <c r="A11" s="137"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="150" t="s">
+      <c r="AF10" s="146"/>
+    </row>
+    <row r="11" spans="1:32" s="1" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="136"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150" t="s">
+      <c r="F11" s="149"/>
+      <c r="G11" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="150"/>
-      <c r="I11" s="138" t="s">
+      <c r="H11" s="149"/>
+      <c r="I11" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138" t="s">
+      <c r="J11" s="137"/>
+      <c r="K11" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="151"/>
-      <c r="M11" s="152" t="s">
+      <c r="L11" s="150"/>
+      <c r="M11" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="153"/>
-      <c r="O11" s="152" t="s">
+      <c r="N11" s="152"/>
+      <c r="O11" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="139" t="s">
+      <c r="P11" s="152"/>
+      <c r="Q11" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="141"/>
-      <c r="S11" s="138" t="s">
+      <c r="R11" s="140"/>
+      <c r="S11" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138" t="s">
+      <c r="T11" s="137"/>
+      <c r="U11" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138" t="s">
+      <c r="V11" s="137"/>
+      <c r="W11" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="138" t="s">
+      <c r="X11" s="150"/>
+      <c r="Y11" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="154" t="s">
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="144"/>
-      <c r="AD11" s="145"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="149"/>
-    </row>
-    <row r="12" spans="1:32" s="1" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A12" s="137"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="72" t="s">
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="143"/>
+      <c r="AD11" s="144"/>
+      <c r="AE11" s="147"/>
+      <c r="AF11" s="148"/>
+    </row>
+    <row r="12" spans="1:32" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="136"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="73" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="73" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="73" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="73" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -2408,19 +2410,19 @@
       <c r="P12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="72" t="s">
+      <c r="Q12" s="73" t="s">
         <v>23</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="72" t="s">
+      <c r="S12" s="73" t="s">
         <v>23</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="73" t="s">
         <v>23</v>
       </c>
       <c r="V12" s="2" t="s">
@@ -2457,7 +2459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:32" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="1" customFormat="1" ht="45.75" customHeight="1">
+    <row r="14" spans="1:32" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>25</v>
@@ -2689,26 +2691,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="48" customHeight="1">
+    <row r="15" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>1</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="112">
         <f>Q15+E15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="112">
+      <c r="D15" s="113">
         <f>F15+R15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="114">
         <f>G15+I15+K15+M15+O15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="114">
+      <c r="F15" s="115">
         <f>H15+J15+L15+N15+P15</f>
         <v>0</v>
       </c>
@@ -2722,11 +2724,11 @@
       <c r="N15" s="22"/>
       <c r="O15" s="21"/>
       <c r="P15" s="22"/>
-      <c r="Q15" s="113">
+      <c r="Q15" s="114">
         <f>S15+U15+W15+Y15+AA15</f>
         <v>0</v>
       </c>
-      <c r="R15" s="114">
+      <c r="R15" s="115">
         <f>T15+V15+X15+Z15+AB15</f>
         <v>0</v>
       </c>
@@ -2745,154 +2747,154 @@
       <c r="AE15" s="21"/>
       <c r="AF15" s="22"/>
     </row>
-    <row r="16" spans="1:32" ht="164.25" customHeight="1">
+    <row r="16" spans="1:32" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="112">
         <f t="shared" ref="C16:C27" si="1">Q16+E16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="112">
+      <c r="D16" s="113">
         <f t="shared" ref="D16:D23" si="2">F16+R16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="114">
         <f t="shared" ref="E16:E27" si="3">G16+I16+K16+M16+O16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="114">
+      <c r="F16" s="115">
         <f t="shared" ref="F16:F27" si="4">H16+J16+L16+N16+P16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="115">
+      <c r="G16" s="116">
         <f t="shared" ref="G16:P16" si="5">G17+G18+G19</f>
         <v>0</v>
       </c>
-      <c r="H16" s="116">
+      <c r="H16" s="117">
         <f>H17+H18+H19</f>
         <v>0</v>
       </c>
-      <c r="I16" s="115">
+      <c r="I16" s="116">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J16" s="116">
+      <c r="J16" s="117">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K16" s="115">
+      <c r="K16" s="116">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L16" s="116">
+      <c r="L16" s="117">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M16" s="115">
+      <c r="M16" s="116">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N16" s="116">
+      <c r="N16" s="117">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="115">
+      <c r="O16" s="116">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P16" s="116">
+      <c r="P16" s="117">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="113">
+      <c r="Q16" s="114">
         <f t="shared" ref="Q16:Q27" si="6">S16+U16+W16+Y16+AA16</f>
         <v>0</v>
       </c>
-      <c r="R16" s="114">
+      <c r="R16" s="115">
         <f t="shared" ref="R16:R27" si="7">T16+V16+X16+Z16+AB16</f>
         <v>0</v>
       </c>
-      <c r="S16" s="115">
+      <c r="S16" s="116">
         <f t="shared" ref="S16:AF16" si="8">S17+S18+S19</f>
         <v>0</v>
       </c>
-      <c r="T16" s="116">
+      <c r="T16" s="117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U16" s="115">
+      <c r="U16" s="116">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V16" s="116">
+      <c r="V16" s="117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W16" s="115">
+      <c r="W16" s="116">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X16" s="116">
+      <c r="X16" s="117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="115">
+      <c r="Y16" s="116">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="116">
+      <c r="Z16" s="117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="115">
+      <c r="AA16" s="116">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="116">
+      <c r="AB16" s="117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="115">
+      <c r="AC16" s="116">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="116">
+      <c r="AD16" s="117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="115">
+      <c r="AE16" s="116">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="116">
+      <c r="AF16" s="117">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="74" customFormat="1" ht="111" customHeight="1">
+    <row r="17" spans="1:32" s="75" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>117</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F17" s="114">
+      <c r="F17" s="115">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2906,11 +2908,11 @@
       <c r="N17" s="25"/>
       <c r="O17" s="24"/>
       <c r="P17" s="25"/>
-      <c r="Q17" s="113">
+      <c r="Q17" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R17" s="114">
+      <c r="R17" s="115">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2929,26 +2931,26 @@
       <c r="AE17" s="24"/>
       <c r="AF17" s="25"/>
     </row>
-    <row r="18" spans="1:32" ht="68.25" customHeight="1">
+    <row r="18" spans="1:32" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D18" s="112">
+      <c r="D18" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F18" s="114">
+      <c r="F18" s="115">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2962,11 +2964,11 @@
       <c r="N18" s="25"/>
       <c r="O18" s="24"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="113">
+      <c r="Q18" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R18" s="114">
+      <c r="R18" s="115">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2985,26 +2987,26 @@
       <c r="AE18" s="24"/>
       <c r="AF18" s="25"/>
     </row>
-    <row r="19" spans="1:32" ht="93.75" customHeight="1">
+    <row r="19" spans="1:32" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D19" s="112">
+      <c r="D19" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="114">
+      <c r="F19" s="115">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3018,11 +3020,11 @@
       <c r="N19" s="25"/>
       <c r="O19" s="24"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="113">
+      <c r="Q19" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R19" s="114">
+      <c r="R19" s="115">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3041,26 +3043,26 @@
       <c r="AE19" s="24"/>
       <c r="AF19" s="25"/>
     </row>
-    <row r="20" spans="1:32" ht="50.25" customHeight="1">
+    <row r="20" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="111">
+      <c r="C20" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="112">
+      <c r="D20" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F20" s="114">
+      <c r="F20" s="115">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3074,11 +3076,11 @@
       <c r="N20" s="25"/>
       <c r="O20" s="24"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="113">
+      <c r="Q20" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20" s="114">
+      <c r="R20" s="115">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3097,26 +3099,26 @@
       <c r="AE20" s="24"/>
       <c r="AF20" s="25"/>
     </row>
-    <row r="21" spans="1:32" s="75" customFormat="1" ht="90.75" customHeight="1">
+    <row r="21" spans="1:32" s="76" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>1.3</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="111">
+      <c r="C21" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="112">
+      <c r="D21" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F21" s="114">
+      <c r="F21" s="115">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3130,11 +3132,11 @@
       <c r="N21" s="25"/>
       <c r="O21" s="24"/>
       <c r="P21" s="25"/>
-      <c r="Q21" s="113">
+      <c r="Q21" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R21" s="114">
+      <c r="R21" s="115">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3153,26 +3155,26 @@
       <c r="AE21" s="24"/>
       <c r="AF21" s="25"/>
     </row>
-    <row r="22" spans="1:32" ht="48" customHeight="1">
+    <row r="22" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="111">
+      <c r="C22" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="112">
+      <c r="D22" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F22" s="114">
+      <c r="F22" s="115">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3186,11 +3188,11 @@
       <c r="N22" s="22"/>
       <c r="O22" s="21"/>
       <c r="P22" s="22"/>
-      <c r="Q22" s="113">
+      <c r="Q22" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R22" s="114">
+      <c r="R22" s="115">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3209,26 +3211,26 @@
       <c r="AE22" s="21"/>
       <c r="AF22" s="22"/>
     </row>
-    <row r="23" spans="1:32" ht="54.75" customHeight="1">
+    <row r="23" spans="1:32" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>118</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="111">
+      <c r="C23" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D23" s="112">
+      <c r="D23" s="113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F23" s="114">
+      <c r="F23" s="115">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3242,11 +3244,11 @@
       <c r="N23" s="25"/>
       <c r="O23" s="24"/>
       <c r="P23" s="25"/>
-      <c r="Q23" s="113">
+      <c r="Q23" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R23" s="114">
+      <c r="R23" s="115">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3265,26 +3267,26 @@
       <c r="AE23" s="24"/>
       <c r="AF23" s="25"/>
     </row>
-    <row r="24" spans="1:32" ht="63" customHeight="1">
+    <row r="24" spans="1:32" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="111">
+      <c r="C24" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="112">
+      <c r="D24" s="113">
         <f t="shared" ref="D24:D27" si="9">F24+R24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F24" s="114">
+      <c r="F24" s="115">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3298,11 +3300,11 @@
       <c r="N24" s="22"/>
       <c r="O24" s="21"/>
       <c r="P24" s="22"/>
-      <c r="Q24" s="113">
+      <c r="Q24" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R24" s="114">
+      <c r="R24" s="115">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3321,26 +3323,26 @@
       <c r="AE24" s="21"/>
       <c r="AF24" s="22"/>
     </row>
-    <row r="25" spans="1:32" ht="113.25" customHeight="1">
+    <row r="25" spans="1:32" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="111">
+      <c r="C25" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D25" s="112">
+      <c r="D25" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E25" s="108">
+      <c r="E25" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F25" s="109">
+      <c r="F25" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3354,11 +3356,11 @@
       <c r="N25" s="25"/>
       <c r="O25" s="24"/>
       <c r="P25" s="25"/>
-      <c r="Q25" s="108">
+      <c r="Q25" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R25" s="109">
+      <c r="R25" s="110">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3377,26 +3379,26 @@
       <c r="AE25" s="24"/>
       <c r="AF25" s="25"/>
     </row>
-    <row r="26" spans="1:32" ht="82.5" customHeight="1">
+    <row r="26" spans="1:32" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="111">
+      <c r="C26" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="112">
+      <c r="D26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3410,11 +3412,11 @@
       <c r="N26" s="25"/>
       <c r="O26" s="24"/>
       <c r="P26" s="25"/>
-      <c r="Q26" s="108">
+      <c r="Q26" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R26" s="109">
+      <c r="R26" s="110">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3433,26 +3435,26 @@
       <c r="AE26" s="24"/>
       <c r="AF26" s="25"/>
     </row>
-    <row r="27" spans="1:32" ht="75.75" customHeight="1">
+    <row r="27" spans="1:32" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="111">
+      <c r="C27" s="112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="112">
+      <c r="D27" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E27" s="108">
+      <c r="E27" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F27" s="109">
+      <c r="F27" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3466,11 +3468,11 @@
       <c r="N27" s="25"/>
       <c r="O27" s="24"/>
       <c r="P27" s="25"/>
-      <c r="Q27" s="108">
+      <c r="Q27" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R27" s="109">
+      <c r="R27" s="110">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3489,7 +3491,7 @@
       <c r="AE27" s="24"/>
       <c r="AF27" s="25"/>
     </row>
-    <row r="28" spans="1:32" s="1" customFormat="1" ht="47.25" customHeight="1">
+    <row r="28" spans="1:32" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
       <c r="B28" s="15" t="s">
         <v>35</v>
@@ -3615,26 +3617,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="45" customHeight="1">
+    <row r="29" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60">
         <v>4</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="111">
+      <c r="C29" s="112">
         <f t="shared" ref="C29:C72" si="11">Q29+E29</f>
         <v>0</v>
       </c>
-      <c r="D29" s="112">
+      <c r="D29" s="113">
         <f t="shared" ref="D29" si="12">F29+R29</f>
         <v>0</v>
       </c>
-      <c r="E29" s="108">
+      <c r="E29" s="109">
         <f t="shared" ref="E29" si="13">G29+I29+K29+M29+O29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="109">
+      <c r="F29" s="110">
         <f t="shared" ref="F29" si="14">H29+J29+L29+N29+P29</f>
         <v>0</v>
       </c>
@@ -3648,11 +3650,11 @@
       <c r="N29" s="22"/>
       <c r="O29" s="21"/>
       <c r="P29" s="22"/>
-      <c r="Q29" s="108">
+      <c r="Q29" s="109">
         <f t="shared" ref="Q29" si="15">S29+U29+W29+Y29+AA29</f>
         <v>0</v>
       </c>
-      <c r="R29" s="109">
+      <c r="R29" s="110">
         <f t="shared" ref="R29" si="16">T29+V29+X29+Z29+AB29</f>
         <v>0</v>
       </c>
@@ -3671,154 +3673,154 @@
       <c r="AE29" s="21"/>
       <c r="AF29" s="22"/>
     </row>
-    <row r="30" spans="1:32" ht="124.5" customHeight="1">
+    <row r="30" spans="1:32" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
         <v>119</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="111">
+      <c r="C30" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D30" s="112">
+      <c r="D30" s="113">
         <f t="shared" ref="D30:D43" si="17">F30+R30</f>
         <v>0</v>
       </c>
-      <c r="E30" s="113">
+      <c r="E30" s="114">
         <f t="shared" ref="E30:E65" si="18">G30+I30+K30+M30+O30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="114">
+      <c r="F30" s="115">
         <f t="shared" ref="F30:F65" si="19">H30+J30+L30+N30+P30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="115">
+      <c r="G30" s="116">
         <f>G31+G32+G33</f>
         <v>0</v>
       </c>
-      <c r="H30" s="116">
+      <c r="H30" s="117">
         <f>H31+H32+H33</f>
         <v>0</v>
       </c>
-      <c r="I30" s="115">
+      <c r="I30" s="116">
         <f t="shared" ref="I30:P30" si="20">I31+I32+I33</f>
         <v>0</v>
       </c>
-      <c r="J30" s="116">
+      <c r="J30" s="117">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K30" s="115">
+      <c r="K30" s="116">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L30" s="116">
+      <c r="L30" s="117">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M30" s="115">
+      <c r="M30" s="116">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N30" s="116">
+      <c r="N30" s="117">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O30" s="115">
+      <c r="O30" s="116">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P30" s="116">
+      <c r="P30" s="117">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="113">
+      <c r="Q30" s="114">
         <f t="shared" ref="Q30:Q65" si="21">S30+U30+W30+Y30+AA30</f>
         <v>0</v>
       </c>
-      <c r="R30" s="114">
+      <c r="R30" s="115">
         <f t="shared" ref="R30:R65" si="22">T30+V30+X30+Z30+AB30</f>
         <v>0</v>
       </c>
-      <c r="S30" s="115">
+      <c r="S30" s="116">
         <f t="shared" ref="S30" si="23">S31+S32+S33</f>
         <v>0</v>
       </c>
-      <c r="T30" s="116">
+      <c r="T30" s="117">
         <f t="shared" ref="T30" si="24">T31+T32+T33</f>
         <v>0</v>
       </c>
-      <c r="U30" s="115">
+      <c r="U30" s="116">
         <f t="shared" ref="U30" si="25">U31+U32+U33</f>
         <v>0</v>
       </c>
-      <c r="V30" s="116">
+      <c r="V30" s="117">
         <f t="shared" ref="V30" si="26">V31+V32+V33</f>
         <v>0</v>
       </c>
-      <c r="W30" s="115">
+      <c r="W30" s="116">
         <f t="shared" ref="W30" si="27">W31+W32+W33</f>
         <v>0</v>
       </c>
-      <c r="X30" s="116">
+      <c r="X30" s="117">
         <f t="shared" ref="X30" si="28">X31+X32+X33</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="115">
+      <c r="Y30" s="116">
         <f t="shared" ref="Y30" si="29">Y31+Y32+Y33</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="116">
+      <c r="Z30" s="117">
         <f t="shared" ref="Z30" si="30">Z31+Z32+Z33</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="115">
+      <c r="AA30" s="116">
         <f t="shared" ref="AA30" si="31">AA31+AA32+AA33</f>
         <v>0</v>
       </c>
-      <c r="AB30" s="116">
+      <c r="AB30" s="117">
         <f t="shared" ref="AB30" si="32">AB31+AB32+AB33</f>
         <v>0</v>
       </c>
-      <c r="AC30" s="115">
+      <c r="AC30" s="116">
         <f t="shared" ref="AC30" si="33">AC31+AC32+AC33</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="116">
+      <c r="AD30" s="117">
         <f t="shared" ref="AD30" si="34">AD31+AD32+AD33</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="115">
+      <c r="AE30" s="116">
         <f t="shared" ref="AE30" si="35">AE31+AE32+AE33</f>
         <v>0</v>
       </c>
-      <c r="AF30" s="116">
+      <c r="AF30" s="117">
         <f t="shared" ref="AF30" si="36">AF31+AF32+AF33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="87" customHeight="1">
+    <row r="31" spans="1:32" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="111">
+      <c r="C31" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D31" s="112">
+      <c r="D31" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E31" s="113">
+      <c r="E31" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F31" s="114">
+      <c r="F31" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -3832,11 +3834,11 @@
       <c r="N31" s="25"/>
       <c r="O31" s="24"/>
       <c r="P31" s="25"/>
-      <c r="Q31" s="113">
+      <c r="Q31" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R31" s="114">
+      <c r="R31" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3855,26 +3857,26 @@
       <c r="AE31" s="24"/>
       <c r="AF31" s="25"/>
     </row>
-    <row r="32" spans="1:32" ht="64.5" customHeight="1">
+    <row r="32" spans="1:32" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="111">
+      <c r="C32" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D32" s="112">
+      <c r="D32" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E32" s="113">
+      <c r="E32" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F32" s="114">
+      <c r="F32" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -3888,11 +3890,11 @@
       <c r="N32" s="25"/>
       <c r="O32" s="24"/>
       <c r="P32" s="25"/>
-      <c r="Q32" s="113">
+      <c r="Q32" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R32" s="114">
+      <c r="R32" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3911,26 +3913,26 @@
       <c r="AE32" s="24"/>
       <c r="AF32" s="25"/>
     </row>
-    <row r="33" spans="1:32" ht="75">
+    <row r="33" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="111">
+      <c r="C33" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D33" s="112">
+      <c r="D33" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E33" s="113">
+      <c r="E33" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F33" s="114">
+      <c r="F33" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -3944,11 +3946,11 @@
       <c r="N33" s="25"/>
       <c r="O33" s="24"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="113">
+      <c r="Q33" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R33" s="114">
+      <c r="R33" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3967,26 +3969,26 @@
       <c r="AE33" s="24"/>
       <c r="AF33" s="25"/>
     </row>
-    <row r="34" spans="1:32" ht="47.25" customHeight="1">
+    <row r="34" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="111">
+      <c r="C34" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D34" s="112">
+      <c r="D34" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E34" s="113">
+      <c r="E34" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F34" s="114">
+      <c r="F34" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4000,11 +4002,11 @@
       <c r="N34" s="25"/>
       <c r="O34" s="24"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="113">
+      <c r="Q34" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R34" s="114">
+      <c r="R34" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4023,26 +4025,26 @@
       <c r="AE34" s="24"/>
       <c r="AF34" s="25"/>
     </row>
-    <row r="35" spans="1:32" ht="88.5" customHeight="1">
+    <row r="35" spans="1:32" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="111">
+      <c r="C35" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D35" s="112">
+      <c r="D35" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E35" s="113">
+      <c r="E35" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F35" s="114">
+      <c r="F35" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4056,11 +4058,11 @@
       <c r="N35" s="25"/>
       <c r="O35" s="24"/>
       <c r="P35" s="25"/>
-      <c r="Q35" s="113">
+      <c r="Q35" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R35" s="114">
+      <c r="R35" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4079,26 +4081,26 @@
       <c r="AE35" s="24"/>
       <c r="AF35" s="25"/>
     </row>
-    <row r="36" spans="1:32" ht="48" customHeight="1">
+    <row r="36" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="111">
+      <c r="C36" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D36" s="112">
+      <c r="D36" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E36" s="113">
+      <c r="E36" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F36" s="114">
+      <c r="F36" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4112,11 +4114,11 @@
       <c r="N36" s="22"/>
       <c r="O36" s="21"/>
       <c r="P36" s="22"/>
-      <c r="Q36" s="113">
+      <c r="Q36" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R36" s="114">
+      <c r="R36" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4135,26 +4137,26 @@
       <c r="AE36" s="21"/>
       <c r="AF36" s="22"/>
     </row>
-    <row r="37" spans="1:32" ht="50.25" customHeight="1">
+    <row r="37" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="111">
+      <c r="C37" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D37" s="112">
+      <c r="D37" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E37" s="113">
+      <c r="E37" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F37" s="114">
+      <c r="F37" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4168,11 +4170,11 @@
       <c r="N37" s="25"/>
       <c r="O37" s="24"/>
       <c r="P37" s="25"/>
-      <c r="Q37" s="113">
+      <c r="Q37" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R37" s="114">
+      <c r="R37" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4191,26 +4193,26 @@
       <c r="AE37" s="24"/>
       <c r="AF37" s="25"/>
     </row>
-    <row r="38" spans="1:32" s="76" customFormat="1" ht="69" customHeight="1">
+    <row r="38" spans="1:32" s="77" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="111">
+      <c r="C38" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D38" s="112">
+      <c r="D38" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E38" s="113">
+      <c r="E38" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F38" s="114">
+      <c r="F38" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4224,11 +4226,11 @@
       <c r="N38" s="25"/>
       <c r="O38" s="24"/>
       <c r="P38" s="25"/>
-      <c r="Q38" s="113">
+      <c r="Q38" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R38" s="114">
+      <c r="R38" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4247,26 +4249,26 @@
       <c r="AE38" s="24"/>
       <c r="AF38" s="25"/>
     </row>
-    <row r="39" spans="1:32" ht="45" customHeight="1">
+    <row r="39" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
         <v>87</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="111">
+      <c r="C39" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D39" s="112">
+      <c r="D39" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E39" s="113">
+      <c r="E39" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F39" s="114">
+      <c r="F39" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4280,11 +4282,11 @@
       <c r="N39" s="22"/>
       <c r="O39" s="21"/>
       <c r="P39" s="22"/>
-      <c r="Q39" s="113">
+      <c r="Q39" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R39" s="114">
+      <c r="R39" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4303,26 +4305,26 @@
       <c r="AE39" s="21"/>
       <c r="AF39" s="22"/>
     </row>
-    <row r="40" spans="1:32" ht="123" customHeight="1">
+    <row r="40" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="111">
+      <c r="C40" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D40" s="112">
+      <c r="D40" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E40" s="113">
+      <c r="E40" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F40" s="114">
+      <c r="F40" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4336,11 +4338,11 @@
       <c r="N40" s="25"/>
       <c r="O40" s="24"/>
       <c r="P40" s="25"/>
-      <c r="Q40" s="113">
+      <c r="Q40" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R40" s="114">
+      <c r="R40" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4359,26 +4361,26 @@
       <c r="AE40" s="24"/>
       <c r="AF40" s="25"/>
     </row>
-    <row r="41" spans="1:32" ht="104.25" customHeight="1">
+    <row r="41" spans="1:32" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62">
         <v>7</v>
       </c>
       <c r="B41" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="111">
+      <c r="C41" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D41" s="112">
+      <c r="D41" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E41" s="113">
+      <c r="E41" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F41" s="114">
+      <c r="F41" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4392,11 +4394,11 @@
       <c r="N41" s="22"/>
       <c r="O41" s="21"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="113">
+      <c r="Q41" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R41" s="114">
+      <c r="R41" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4415,26 +4417,26 @@
       <c r="AE41" s="21"/>
       <c r="AF41" s="22"/>
     </row>
-    <row r="42" spans="1:32" ht="70.5" customHeight="1">
+    <row r="42" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="62">
         <v>8</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="111">
+      <c r="C42" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D42" s="112">
+      <c r="D42" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E42" s="113">
+      <c r="E42" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F42" s="114">
+      <c r="F42" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4448,11 +4450,11 @@
       <c r="N42" s="22"/>
       <c r="O42" s="21"/>
       <c r="P42" s="22"/>
-      <c r="Q42" s="113">
+      <c r="Q42" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R42" s="114">
+      <c r="R42" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4471,26 +4473,26 @@
       <c r="AE42" s="21"/>
       <c r="AF42" s="22"/>
     </row>
-    <row r="43" spans="1:32" ht="51.75" customHeight="1">
+    <row r="43" spans="1:32" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="111">
+      <c r="C43" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D43" s="112">
+      <c r="D43" s="113">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E43" s="113">
+      <c r="E43" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F43" s="114">
+      <c r="F43" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4504,11 +4506,11 @@
       <c r="N43" s="25"/>
       <c r="O43" s="24"/>
       <c r="P43" s="25"/>
-      <c r="Q43" s="113">
+      <c r="Q43" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R43" s="114">
+      <c r="R43" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4527,26 +4529,26 @@
       <c r="AE43" s="24"/>
       <c r="AF43" s="25"/>
     </row>
-    <row r="44" spans="1:32" ht="46.5" customHeight="1">
+    <row r="44" spans="1:32" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>120</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="111">
+      <c r="C44" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D44" s="112">
+      <c r="D44" s="113">
         <f t="shared" ref="D44:D56" si="37">F44+R44</f>
         <v>0</v>
       </c>
-      <c r="E44" s="113">
+      <c r="E44" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F44" s="114">
+      <c r="F44" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4560,11 +4562,11 @@
       <c r="N44" s="25"/>
       <c r="O44" s="24"/>
       <c r="P44" s="25"/>
-      <c r="Q44" s="113">
+      <c r="Q44" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R44" s="114">
+      <c r="R44" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4583,26 +4585,26 @@
       <c r="AE44" s="24"/>
       <c r="AF44" s="25"/>
     </row>
-    <row r="45" spans="1:32" ht="75">
+    <row r="45" spans="1:32" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>121</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="111">
+      <c r="C45" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D45" s="112">
+      <c r="D45" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E45" s="113">
+      <c r="E45" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F45" s="114">
+      <c r="F45" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4616,11 +4618,11 @@
       <c r="N45" s="25"/>
       <c r="O45" s="24"/>
       <c r="P45" s="25"/>
-      <c r="Q45" s="113">
+      <c r="Q45" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R45" s="114">
+      <c r="R45" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4639,26 +4641,26 @@
       <c r="AE45" s="24"/>
       <c r="AF45" s="25"/>
     </row>
-    <row r="46" spans="1:32" ht="75" customHeight="1">
+    <row r="46" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="111">
+      <c r="C46" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D46" s="112">
+      <c r="D46" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E46" s="113">
+      <c r="E46" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F46" s="114">
+      <c r="F46" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4672,11 +4674,11 @@
       <c r="N46" s="22"/>
       <c r="O46" s="21"/>
       <c r="P46" s="22"/>
-      <c r="Q46" s="113">
+      <c r="Q46" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R46" s="114">
+      <c r="R46" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4695,26 +4697,26 @@
       <c r="AE46" s="21"/>
       <c r="AF46" s="22"/>
     </row>
-    <row r="47" spans="1:32" ht="69.75" customHeight="1">
+    <row r="47" spans="1:32" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="60">
         <v>10</v>
       </c>
       <c r="B47" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="111">
+      <c r="C47" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D47" s="112">
+      <c r="D47" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E47" s="108">
+      <c r="E47" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F47" s="109">
+      <c r="F47" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4728,11 +4730,11 @@
       <c r="N47" s="22"/>
       <c r="O47" s="21"/>
       <c r="P47" s="22"/>
-      <c r="Q47" s="108">
+      <c r="Q47" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R47" s="109">
+      <c r="R47" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4751,26 +4753,26 @@
       <c r="AE47" s="21"/>
       <c r="AF47" s="22"/>
     </row>
-    <row r="48" spans="1:32" ht="51.75" customHeight="1">
-      <c r="A48" s="117" t="s">
+    <row r="48" spans="1:32" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="156" t="s">
         <v>122</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="111">
+      <c r="C48" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D48" s="112">
+      <c r="D48" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E48" s="108">
+      <c r="E48" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F48" s="109">
+      <c r="F48" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4784,11 +4786,11 @@
       <c r="N48" s="25"/>
       <c r="O48" s="24"/>
       <c r="P48" s="25"/>
-      <c r="Q48" s="108">
+      <c r="Q48" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R48" s="109">
+      <c r="R48" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4807,26 +4809,26 @@
       <c r="AE48" s="24"/>
       <c r="AF48" s="25"/>
     </row>
-    <row r="49" spans="1:183" ht="45" customHeight="1">
-      <c r="A49" s="117" t="s">
+    <row r="49" spans="1:183" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="156" t="s">
         <v>123</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="111">
+      <c r="C49" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D49" s="112">
+      <c r="D49" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E49" s="108">
+      <c r="E49" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F49" s="109">
+      <c r="F49" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4840,11 +4842,11 @@
       <c r="N49" s="25"/>
       <c r="O49" s="24"/>
       <c r="P49" s="25"/>
-      <c r="Q49" s="108">
+      <c r="Q49" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R49" s="109">
+      <c r="R49" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4863,26 +4865,26 @@
       <c r="AE49" s="24"/>
       <c r="AF49" s="25"/>
     </row>
-    <row r="50" spans="1:183" ht="56.25" customHeight="1">
+    <row r="50" spans="1:183" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="60">
         <v>11</v>
       </c>
       <c r="B50" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="111">
+      <c r="C50" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D50" s="112">
+      <c r="D50" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E50" s="108">
+      <c r="E50" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F50" s="109">
+      <c r="F50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4896,11 +4898,11 @@
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
       <c r="P50" s="22"/>
-      <c r="Q50" s="108">
+      <c r="Q50" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R50" s="109">
+      <c r="R50" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4919,26 +4921,26 @@
       <c r="AE50" s="21"/>
       <c r="AF50" s="22"/>
     </row>
-    <row r="51" spans="1:183" ht="69" customHeight="1">
-      <c r="A51" s="117" t="s">
+    <row r="51" spans="1:183" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="156" t="s">
         <v>124</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="111">
+      <c r="C51" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D51" s="112">
+      <c r="D51" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E51" s="108">
+      <c r="E51" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F51" s="109">
+      <c r="F51" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4952,11 +4954,11 @@
       <c r="N51" s="25"/>
       <c r="O51" s="24"/>
       <c r="P51" s="25"/>
-      <c r="Q51" s="108">
+      <c r="Q51" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R51" s="109">
+      <c r="R51" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -4974,178 +4976,178 @@
       <c r="AD51" s="25"/>
       <c r="AE51" s="24"/>
       <c r="AF51" s="25"/>
-      <c r="AG51" s="74"/>
-      <c r="AH51" s="74"/>
-      <c r="AI51" s="74"/>
-      <c r="AJ51" s="74"/>
-      <c r="AK51" s="74"/>
-      <c r="AL51" s="74"/>
-      <c r="AM51" s="74"/>
-      <c r="AN51" s="74"/>
-      <c r="AO51" s="74"/>
-      <c r="AP51" s="74"/>
-      <c r="AQ51" s="74"/>
-      <c r="AR51" s="74"/>
-      <c r="AS51" s="74"/>
-      <c r="AT51" s="74"/>
-      <c r="AU51" s="74"/>
-      <c r="AV51" s="74"/>
-      <c r="AW51" s="74"/>
-      <c r="AX51" s="74"/>
-      <c r="AY51" s="74"/>
-      <c r="AZ51" s="74"/>
-      <c r="BA51" s="74"/>
-      <c r="BB51" s="74"/>
-      <c r="BC51" s="74"/>
-      <c r="BD51" s="74"/>
-      <c r="BE51" s="74"/>
-      <c r="BF51" s="74"/>
-      <c r="BG51" s="74"/>
-      <c r="BH51" s="74"/>
-      <c r="BI51" s="74"/>
-      <c r="BJ51" s="74"/>
-      <c r="BK51" s="74"/>
-      <c r="BL51" s="74"/>
-      <c r="BM51" s="74"/>
-      <c r="BN51" s="74"/>
-      <c r="BO51" s="74"/>
-      <c r="BP51" s="74"/>
-      <c r="BQ51" s="74"/>
-      <c r="BR51" s="74"/>
-      <c r="BS51" s="74"/>
-      <c r="BT51" s="74"/>
-      <c r="BU51" s="74"/>
-      <c r="BV51" s="74"/>
-      <c r="BW51" s="74"/>
-      <c r="BX51" s="74"/>
-      <c r="BY51" s="74"/>
-      <c r="BZ51" s="74"/>
-      <c r="CA51" s="74"/>
-      <c r="CB51" s="74"/>
-      <c r="CC51" s="74"/>
-      <c r="CD51" s="74"/>
-      <c r="CE51" s="74"/>
-      <c r="CF51" s="74"/>
-      <c r="CG51" s="74"/>
-      <c r="CH51" s="74"/>
-      <c r="CI51" s="74"/>
-      <c r="CJ51" s="74"/>
-      <c r="CK51" s="74"/>
-      <c r="CL51" s="74"/>
-      <c r="CM51" s="74"/>
-      <c r="CN51" s="74"/>
-      <c r="CO51" s="74"/>
-      <c r="CP51" s="74"/>
-      <c r="CQ51" s="74"/>
-      <c r="CR51" s="74"/>
-      <c r="CS51" s="74"/>
-      <c r="CT51" s="74"/>
-      <c r="CU51" s="74"/>
-      <c r="CV51" s="74"/>
-      <c r="CW51" s="74"/>
-      <c r="CX51" s="74"/>
-      <c r="CY51" s="74"/>
-      <c r="CZ51" s="74"/>
-      <c r="DA51" s="74"/>
-      <c r="DB51" s="74"/>
-      <c r="DC51" s="74"/>
-      <c r="DD51" s="74"/>
-      <c r="DE51" s="74"/>
-      <c r="DF51" s="74"/>
-      <c r="DG51" s="74"/>
-      <c r="DH51" s="74"/>
-      <c r="DI51" s="74"/>
-      <c r="DJ51" s="74"/>
-      <c r="DK51" s="74"/>
-      <c r="DL51" s="74"/>
-      <c r="DM51" s="74"/>
-      <c r="DN51" s="74"/>
-      <c r="DO51" s="74"/>
-      <c r="DP51" s="74"/>
-      <c r="DQ51" s="74"/>
-      <c r="DR51" s="74"/>
-      <c r="DS51" s="74"/>
-      <c r="DT51" s="74"/>
-      <c r="DU51" s="74"/>
-      <c r="DV51" s="74"/>
-      <c r="DW51" s="74"/>
-      <c r="DX51" s="74"/>
-      <c r="DY51" s="74"/>
-      <c r="DZ51" s="74"/>
-      <c r="EA51" s="74"/>
-      <c r="EB51" s="74"/>
-      <c r="EC51" s="74"/>
-      <c r="ED51" s="74"/>
-      <c r="EE51" s="74"/>
-      <c r="EF51" s="74"/>
-      <c r="EG51" s="74"/>
-      <c r="EH51" s="74"/>
-      <c r="EI51" s="74"/>
-      <c r="EJ51" s="74"/>
-      <c r="EK51" s="74"/>
-      <c r="EL51" s="74"/>
-      <c r="EM51" s="74"/>
-      <c r="EN51" s="74"/>
-      <c r="EO51" s="74"/>
-      <c r="EP51" s="74"/>
-      <c r="EQ51" s="74"/>
-      <c r="ER51" s="74"/>
-      <c r="ES51" s="74"/>
-      <c r="ET51" s="74"/>
-      <c r="EU51" s="74"/>
-      <c r="EV51" s="74"/>
-      <c r="EW51" s="74"/>
-      <c r="EX51" s="74"/>
-      <c r="EY51" s="74"/>
-      <c r="EZ51" s="74"/>
-      <c r="FA51" s="74"/>
-      <c r="FB51" s="74"/>
-      <c r="FC51" s="74"/>
-      <c r="FD51" s="74"/>
-      <c r="FE51" s="74"/>
-      <c r="FF51" s="74"/>
-      <c r="FG51" s="74"/>
-      <c r="FH51" s="74"/>
-      <c r="FI51" s="74"/>
-      <c r="FJ51" s="74"/>
-      <c r="FK51" s="74"/>
-      <c r="FL51" s="74"/>
-      <c r="FM51" s="74"/>
-      <c r="FN51" s="74"/>
-      <c r="FO51" s="74"/>
-      <c r="FP51" s="74"/>
-      <c r="FQ51" s="74"/>
-      <c r="FR51" s="74"/>
-      <c r="FS51" s="74"/>
-      <c r="FT51" s="74"/>
-      <c r="FU51" s="74"/>
-      <c r="FV51" s="74"/>
-      <c r="FW51" s="74"/>
-      <c r="FX51" s="74"/>
-      <c r="FY51" s="74"/>
-      <c r="FZ51" s="74"/>
-      <c r="GA51" s="74"/>
-    </row>
-    <row r="52" spans="1:183" s="77" customFormat="1" ht="120.75" customHeight="1">
+      <c r="AG51" s="75"/>
+      <c r="AH51" s="75"/>
+      <c r="AI51" s="75"/>
+      <c r="AJ51" s="75"/>
+      <c r="AK51" s="75"/>
+      <c r="AL51" s="75"/>
+      <c r="AM51" s="75"/>
+      <c r="AN51" s="75"/>
+      <c r="AO51" s="75"/>
+      <c r="AP51" s="75"/>
+      <c r="AQ51" s="75"/>
+      <c r="AR51" s="75"/>
+      <c r="AS51" s="75"/>
+      <c r="AT51" s="75"/>
+      <c r="AU51" s="75"/>
+      <c r="AV51" s="75"/>
+      <c r="AW51" s="75"/>
+      <c r="AX51" s="75"/>
+      <c r="AY51" s="75"/>
+      <c r="AZ51" s="75"/>
+      <c r="BA51" s="75"/>
+      <c r="BB51" s="75"/>
+      <c r="BC51" s="75"/>
+      <c r="BD51" s="75"/>
+      <c r="BE51" s="75"/>
+      <c r="BF51" s="75"/>
+      <c r="BG51" s="75"/>
+      <c r="BH51" s="75"/>
+      <c r="BI51" s="75"/>
+      <c r="BJ51" s="75"/>
+      <c r="BK51" s="75"/>
+      <c r="BL51" s="75"/>
+      <c r="BM51" s="75"/>
+      <c r="BN51" s="75"/>
+      <c r="BO51" s="75"/>
+      <c r="BP51" s="75"/>
+      <c r="BQ51" s="75"/>
+      <c r="BR51" s="75"/>
+      <c r="BS51" s="75"/>
+      <c r="BT51" s="75"/>
+      <c r="BU51" s="75"/>
+      <c r="BV51" s="75"/>
+      <c r="BW51" s="75"/>
+      <c r="BX51" s="75"/>
+      <c r="BY51" s="75"/>
+      <c r="BZ51" s="75"/>
+      <c r="CA51" s="75"/>
+      <c r="CB51" s="75"/>
+      <c r="CC51" s="75"/>
+      <c r="CD51" s="75"/>
+      <c r="CE51" s="75"/>
+      <c r="CF51" s="75"/>
+      <c r="CG51" s="75"/>
+      <c r="CH51" s="75"/>
+      <c r="CI51" s="75"/>
+      <c r="CJ51" s="75"/>
+      <c r="CK51" s="75"/>
+      <c r="CL51" s="75"/>
+      <c r="CM51" s="75"/>
+      <c r="CN51" s="75"/>
+      <c r="CO51" s="75"/>
+      <c r="CP51" s="75"/>
+      <c r="CQ51" s="75"/>
+      <c r="CR51" s="75"/>
+      <c r="CS51" s="75"/>
+      <c r="CT51" s="75"/>
+      <c r="CU51" s="75"/>
+      <c r="CV51" s="75"/>
+      <c r="CW51" s="75"/>
+      <c r="CX51" s="75"/>
+      <c r="CY51" s="75"/>
+      <c r="CZ51" s="75"/>
+      <c r="DA51" s="75"/>
+      <c r="DB51" s="75"/>
+      <c r="DC51" s="75"/>
+      <c r="DD51" s="75"/>
+      <c r="DE51" s="75"/>
+      <c r="DF51" s="75"/>
+      <c r="DG51" s="75"/>
+      <c r="DH51" s="75"/>
+      <c r="DI51" s="75"/>
+      <c r="DJ51" s="75"/>
+      <c r="DK51" s="75"/>
+      <c r="DL51" s="75"/>
+      <c r="DM51" s="75"/>
+      <c r="DN51" s="75"/>
+      <c r="DO51" s="75"/>
+      <c r="DP51" s="75"/>
+      <c r="DQ51" s="75"/>
+      <c r="DR51" s="75"/>
+      <c r="DS51" s="75"/>
+      <c r="DT51" s="75"/>
+      <c r="DU51" s="75"/>
+      <c r="DV51" s="75"/>
+      <c r="DW51" s="75"/>
+      <c r="DX51" s="75"/>
+      <c r="DY51" s="75"/>
+      <c r="DZ51" s="75"/>
+      <c r="EA51" s="75"/>
+      <c r="EB51" s="75"/>
+      <c r="EC51" s="75"/>
+      <c r="ED51" s="75"/>
+      <c r="EE51" s="75"/>
+      <c r="EF51" s="75"/>
+      <c r="EG51" s="75"/>
+      <c r="EH51" s="75"/>
+      <c r="EI51" s="75"/>
+      <c r="EJ51" s="75"/>
+      <c r="EK51" s="75"/>
+      <c r="EL51" s="75"/>
+      <c r="EM51" s="75"/>
+      <c r="EN51" s="75"/>
+      <c r="EO51" s="75"/>
+      <c r="EP51" s="75"/>
+      <c r="EQ51" s="75"/>
+      <c r="ER51" s="75"/>
+      <c r="ES51" s="75"/>
+      <c r="ET51" s="75"/>
+      <c r="EU51" s="75"/>
+      <c r="EV51" s="75"/>
+      <c r="EW51" s="75"/>
+      <c r="EX51" s="75"/>
+      <c r="EY51" s="75"/>
+      <c r="EZ51" s="75"/>
+      <c r="FA51" s="75"/>
+      <c r="FB51" s="75"/>
+      <c r="FC51" s="75"/>
+      <c r="FD51" s="75"/>
+      <c r="FE51" s="75"/>
+      <c r="FF51" s="75"/>
+      <c r="FG51" s="75"/>
+      <c r="FH51" s="75"/>
+      <c r="FI51" s="75"/>
+      <c r="FJ51" s="75"/>
+      <c r="FK51" s="75"/>
+      <c r="FL51" s="75"/>
+      <c r="FM51" s="75"/>
+      <c r="FN51" s="75"/>
+      <c r="FO51" s="75"/>
+      <c r="FP51" s="75"/>
+      <c r="FQ51" s="75"/>
+      <c r="FR51" s="75"/>
+      <c r="FS51" s="75"/>
+      <c r="FT51" s="75"/>
+      <c r="FU51" s="75"/>
+      <c r="FV51" s="75"/>
+      <c r="FW51" s="75"/>
+      <c r="FX51" s="75"/>
+      <c r="FY51" s="75"/>
+      <c r="FZ51" s="75"/>
+      <c r="GA51" s="75"/>
+    </row>
+    <row r="52" spans="1:183" s="78" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63">
         <v>12</v>
       </c>
       <c r="B52" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="111">
+      <c r="C52" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D52" s="112">
+      <c r="D52" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E52" s="108">
+      <c r="E52" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F52" s="109">
+      <c r="F52" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5159,11 +5161,11 @@
       <c r="N52" s="22"/>
       <c r="O52" s="21"/>
       <c r="P52" s="22"/>
-      <c r="Q52" s="108">
+      <c r="Q52" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R52" s="109">
+      <c r="R52" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5181,178 +5183,178 @@
       <c r="AD52" s="22"/>
       <c r="AE52" s="21"/>
       <c r="AF52" s="22"/>
-      <c r="AG52" s="74"/>
-      <c r="AH52" s="74"/>
-      <c r="AI52" s="74"/>
-      <c r="AJ52" s="74"/>
-      <c r="AK52" s="74"/>
-      <c r="AL52" s="74"/>
-      <c r="AM52" s="74"/>
-      <c r="AN52" s="74"/>
-      <c r="AO52" s="74"/>
-      <c r="AP52" s="74"/>
-      <c r="AQ52" s="74"/>
-      <c r="AR52" s="74"/>
-      <c r="AS52" s="74"/>
-      <c r="AT52" s="74"/>
-      <c r="AU52" s="74"/>
-      <c r="AV52" s="74"/>
-      <c r="AW52" s="74"/>
-      <c r="AX52" s="74"/>
-      <c r="AY52" s="74"/>
-      <c r="AZ52" s="74"/>
-      <c r="BA52" s="74"/>
-      <c r="BB52" s="74"/>
-      <c r="BC52" s="74"/>
-      <c r="BD52" s="74"/>
-      <c r="BE52" s="74"/>
-      <c r="BF52" s="74"/>
-      <c r="BG52" s="74"/>
-      <c r="BH52" s="74"/>
-      <c r="BI52" s="74"/>
-      <c r="BJ52" s="74"/>
-      <c r="BK52" s="74"/>
-      <c r="BL52" s="74"/>
-      <c r="BM52" s="74"/>
-      <c r="BN52" s="74"/>
-      <c r="BO52" s="74"/>
-      <c r="BP52" s="74"/>
-      <c r="BQ52" s="74"/>
-      <c r="BR52" s="74"/>
-      <c r="BS52" s="74"/>
-      <c r="BT52" s="74"/>
-      <c r="BU52" s="74"/>
-      <c r="BV52" s="74"/>
-      <c r="BW52" s="74"/>
-      <c r="BX52" s="74"/>
-      <c r="BY52" s="74"/>
-      <c r="BZ52" s="74"/>
-      <c r="CA52" s="74"/>
-      <c r="CB52" s="74"/>
-      <c r="CC52" s="74"/>
-      <c r="CD52" s="74"/>
-      <c r="CE52" s="74"/>
-      <c r="CF52" s="74"/>
-      <c r="CG52" s="74"/>
-      <c r="CH52" s="74"/>
-      <c r="CI52" s="74"/>
-      <c r="CJ52" s="74"/>
-      <c r="CK52" s="74"/>
-      <c r="CL52" s="74"/>
-      <c r="CM52" s="74"/>
-      <c r="CN52" s="74"/>
-      <c r="CO52" s="74"/>
-      <c r="CP52" s="74"/>
-      <c r="CQ52" s="74"/>
-      <c r="CR52" s="74"/>
-      <c r="CS52" s="74"/>
-      <c r="CT52" s="74"/>
-      <c r="CU52" s="74"/>
-      <c r="CV52" s="74"/>
-      <c r="CW52" s="74"/>
-      <c r="CX52" s="74"/>
-      <c r="CY52" s="74"/>
-      <c r="CZ52" s="74"/>
-      <c r="DA52" s="74"/>
-      <c r="DB52" s="74"/>
-      <c r="DC52" s="74"/>
-      <c r="DD52" s="74"/>
-      <c r="DE52" s="74"/>
-      <c r="DF52" s="74"/>
-      <c r="DG52" s="74"/>
-      <c r="DH52" s="74"/>
-      <c r="DI52" s="74"/>
-      <c r="DJ52" s="74"/>
-      <c r="DK52" s="74"/>
-      <c r="DL52" s="74"/>
-      <c r="DM52" s="74"/>
-      <c r="DN52" s="74"/>
-      <c r="DO52" s="74"/>
-      <c r="DP52" s="74"/>
-      <c r="DQ52" s="74"/>
-      <c r="DR52" s="74"/>
-      <c r="DS52" s="74"/>
-      <c r="DT52" s="74"/>
-      <c r="DU52" s="74"/>
-      <c r="DV52" s="74"/>
-      <c r="DW52" s="74"/>
-      <c r="DX52" s="74"/>
-      <c r="DY52" s="74"/>
-      <c r="DZ52" s="74"/>
-      <c r="EA52" s="74"/>
-      <c r="EB52" s="74"/>
-      <c r="EC52" s="74"/>
-      <c r="ED52" s="74"/>
-      <c r="EE52" s="74"/>
-      <c r="EF52" s="74"/>
-      <c r="EG52" s="74"/>
-      <c r="EH52" s="74"/>
-      <c r="EI52" s="74"/>
-      <c r="EJ52" s="74"/>
-      <c r="EK52" s="74"/>
-      <c r="EL52" s="74"/>
-      <c r="EM52" s="74"/>
-      <c r="EN52" s="74"/>
-      <c r="EO52" s="74"/>
-      <c r="EP52" s="74"/>
-      <c r="EQ52" s="74"/>
-      <c r="ER52" s="74"/>
-      <c r="ES52" s="74"/>
-      <c r="ET52" s="74"/>
-      <c r="EU52" s="74"/>
-      <c r="EV52" s="74"/>
-      <c r="EW52" s="74"/>
-      <c r="EX52" s="74"/>
-      <c r="EY52" s="74"/>
-      <c r="EZ52" s="74"/>
-      <c r="FA52" s="74"/>
-      <c r="FB52" s="74"/>
-      <c r="FC52" s="74"/>
-      <c r="FD52" s="74"/>
-      <c r="FE52" s="74"/>
-      <c r="FF52" s="74"/>
-      <c r="FG52" s="74"/>
-      <c r="FH52" s="74"/>
-      <c r="FI52" s="74"/>
-      <c r="FJ52" s="74"/>
-      <c r="FK52" s="74"/>
-      <c r="FL52" s="74"/>
-      <c r="FM52" s="74"/>
-      <c r="FN52" s="74"/>
-      <c r="FO52" s="74"/>
-      <c r="FP52" s="74"/>
-      <c r="FQ52" s="74"/>
-      <c r="FR52" s="74"/>
-      <c r="FS52" s="74"/>
-      <c r="FT52" s="74"/>
-      <c r="FU52" s="74"/>
-      <c r="FV52" s="74"/>
-      <c r="FW52" s="74"/>
-      <c r="FX52" s="74"/>
-      <c r="FY52" s="74"/>
-      <c r="FZ52" s="74"/>
-      <c r="GA52" s="74"/>
-    </row>
-    <row r="53" spans="1:183" ht="103.5" customHeight="1">
+      <c r="AG52" s="75"/>
+      <c r="AH52" s="75"/>
+      <c r="AI52" s="75"/>
+      <c r="AJ52" s="75"/>
+      <c r="AK52" s="75"/>
+      <c r="AL52" s="75"/>
+      <c r="AM52" s="75"/>
+      <c r="AN52" s="75"/>
+      <c r="AO52" s="75"/>
+      <c r="AP52" s="75"/>
+      <c r="AQ52" s="75"/>
+      <c r="AR52" s="75"/>
+      <c r="AS52" s="75"/>
+      <c r="AT52" s="75"/>
+      <c r="AU52" s="75"/>
+      <c r="AV52" s="75"/>
+      <c r="AW52" s="75"/>
+      <c r="AX52" s="75"/>
+      <c r="AY52" s="75"/>
+      <c r="AZ52" s="75"/>
+      <c r="BA52" s="75"/>
+      <c r="BB52" s="75"/>
+      <c r="BC52" s="75"/>
+      <c r="BD52" s="75"/>
+      <c r="BE52" s="75"/>
+      <c r="BF52" s="75"/>
+      <c r="BG52" s="75"/>
+      <c r="BH52" s="75"/>
+      <c r="BI52" s="75"/>
+      <c r="BJ52" s="75"/>
+      <c r="BK52" s="75"/>
+      <c r="BL52" s="75"/>
+      <c r="BM52" s="75"/>
+      <c r="BN52" s="75"/>
+      <c r="BO52" s="75"/>
+      <c r="BP52" s="75"/>
+      <c r="BQ52" s="75"/>
+      <c r="BR52" s="75"/>
+      <c r="BS52" s="75"/>
+      <c r="BT52" s="75"/>
+      <c r="BU52" s="75"/>
+      <c r="BV52" s="75"/>
+      <c r="BW52" s="75"/>
+      <c r="BX52" s="75"/>
+      <c r="BY52" s="75"/>
+      <c r="BZ52" s="75"/>
+      <c r="CA52" s="75"/>
+      <c r="CB52" s="75"/>
+      <c r="CC52" s="75"/>
+      <c r="CD52" s="75"/>
+      <c r="CE52" s="75"/>
+      <c r="CF52" s="75"/>
+      <c r="CG52" s="75"/>
+      <c r="CH52" s="75"/>
+      <c r="CI52" s="75"/>
+      <c r="CJ52" s="75"/>
+      <c r="CK52" s="75"/>
+      <c r="CL52" s="75"/>
+      <c r="CM52" s="75"/>
+      <c r="CN52" s="75"/>
+      <c r="CO52" s="75"/>
+      <c r="CP52" s="75"/>
+      <c r="CQ52" s="75"/>
+      <c r="CR52" s="75"/>
+      <c r="CS52" s="75"/>
+      <c r="CT52" s="75"/>
+      <c r="CU52" s="75"/>
+      <c r="CV52" s="75"/>
+      <c r="CW52" s="75"/>
+      <c r="CX52" s="75"/>
+      <c r="CY52" s="75"/>
+      <c r="CZ52" s="75"/>
+      <c r="DA52" s="75"/>
+      <c r="DB52" s="75"/>
+      <c r="DC52" s="75"/>
+      <c r="DD52" s="75"/>
+      <c r="DE52" s="75"/>
+      <c r="DF52" s="75"/>
+      <c r="DG52" s="75"/>
+      <c r="DH52" s="75"/>
+      <c r="DI52" s="75"/>
+      <c r="DJ52" s="75"/>
+      <c r="DK52" s="75"/>
+      <c r="DL52" s="75"/>
+      <c r="DM52" s="75"/>
+      <c r="DN52" s="75"/>
+      <c r="DO52" s="75"/>
+      <c r="DP52" s="75"/>
+      <c r="DQ52" s="75"/>
+      <c r="DR52" s="75"/>
+      <c r="DS52" s="75"/>
+      <c r="DT52" s="75"/>
+      <c r="DU52" s="75"/>
+      <c r="DV52" s="75"/>
+      <c r="DW52" s="75"/>
+      <c r="DX52" s="75"/>
+      <c r="DY52" s="75"/>
+      <c r="DZ52" s="75"/>
+      <c r="EA52" s="75"/>
+      <c r="EB52" s="75"/>
+      <c r="EC52" s="75"/>
+      <c r="ED52" s="75"/>
+      <c r="EE52" s="75"/>
+      <c r="EF52" s="75"/>
+      <c r="EG52" s="75"/>
+      <c r="EH52" s="75"/>
+      <c r="EI52" s="75"/>
+      <c r="EJ52" s="75"/>
+      <c r="EK52" s="75"/>
+      <c r="EL52" s="75"/>
+      <c r="EM52" s="75"/>
+      <c r="EN52" s="75"/>
+      <c r="EO52" s="75"/>
+      <c r="EP52" s="75"/>
+      <c r="EQ52" s="75"/>
+      <c r="ER52" s="75"/>
+      <c r="ES52" s="75"/>
+      <c r="ET52" s="75"/>
+      <c r="EU52" s="75"/>
+      <c r="EV52" s="75"/>
+      <c r="EW52" s="75"/>
+      <c r="EX52" s="75"/>
+      <c r="EY52" s="75"/>
+      <c r="EZ52" s="75"/>
+      <c r="FA52" s="75"/>
+      <c r="FB52" s="75"/>
+      <c r="FC52" s="75"/>
+      <c r="FD52" s="75"/>
+      <c r="FE52" s="75"/>
+      <c r="FF52" s="75"/>
+      <c r="FG52" s="75"/>
+      <c r="FH52" s="75"/>
+      <c r="FI52" s="75"/>
+      <c r="FJ52" s="75"/>
+      <c r="FK52" s="75"/>
+      <c r="FL52" s="75"/>
+      <c r="FM52" s="75"/>
+      <c r="FN52" s="75"/>
+      <c r="FO52" s="75"/>
+      <c r="FP52" s="75"/>
+      <c r="FQ52" s="75"/>
+      <c r="FR52" s="75"/>
+      <c r="FS52" s="75"/>
+      <c r="FT52" s="75"/>
+      <c r="FU52" s="75"/>
+      <c r="FV52" s="75"/>
+      <c r="FW52" s="75"/>
+      <c r="FX52" s="75"/>
+      <c r="FY52" s="75"/>
+      <c r="FZ52" s="75"/>
+      <c r="GA52" s="75"/>
+    </row>
+    <row r="53" spans="1:183" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="60">
         <v>13</v>
       </c>
       <c r="B53" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="111">
+      <c r="C53" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D53" s="112">
+      <c r="D53" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E53" s="108">
+      <c r="E53" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F53" s="109">
+      <c r="F53" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5366,11 +5368,11 @@
       <c r="N53" s="22"/>
       <c r="O53" s="21"/>
       <c r="P53" s="22"/>
-      <c r="Q53" s="108">
+      <c r="Q53" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R53" s="109">
+      <c r="R53" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5388,178 +5390,178 @@
       <c r="AD53" s="22"/>
       <c r="AE53" s="21"/>
       <c r="AF53" s="22"/>
-      <c r="AG53" s="74"/>
-      <c r="AH53" s="74"/>
-      <c r="AI53" s="74"/>
-      <c r="AJ53" s="74"/>
-      <c r="AK53" s="74"/>
-      <c r="AL53" s="74"/>
-      <c r="AM53" s="74"/>
-      <c r="AN53" s="74"/>
-      <c r="AO53" s="74"/>
-      <c r="AP53" s="74"/>
-      <c r="AQ53" s="74"/>
-      <c r="AR53" s="74"/>
-      <c r="AS53" s="74"/>
-      <c r="AT53" s="74"/>
-      <c r="AU53" s="74"/>
-      <c r="AV53" s="74"/>
-      <c r="AW53" s="74"/>
-      <c r="AX53" s="74"/>
-      <c r="AY53" s="74"/>
-      <c r="AZ53" s="74"/>
-      <c r="BA53" s="74"/>
-      <c r="BB53" s="74"/>
-      <c r="BC53" s="74"/>
-      <c r="BD53" s="74"/>
-      <c r="BE53" s="74"/>
-      <c r="BF53" s="74"/>
-      <c r="BG53" s="74"/>
-      <c r="BH53" s="74"/>
-      <c r="BI53" s="74"/>
-      <c r="BJ53" s="74"/>
-      <c r="BK53" s="74"/>
-      <c r="BL53" s="74"/>
-      <c r="BM53" s="74"/>
-      <c r="BN53" s="74"/>
-      <c r="BO53" s="74"/>
-      <c r="BP53" s="74"/>
-      <c r="BQ53" s="74"/>
-      <c r="BR53" s="74"/>
-      <c r="BS53" s="74"/>
-      <c r="BT53" s="74"/>
-      <c r="BU53" s="74"/>
-      <c r="BV53" s="74"/>
-      <c r="BW53" s="74"/>
-      <c r="BX53" s="74"/>
-      <c r="BY53" s="74"/>
-      <c r="BZ53" s="74"/>
-      <c r="CA53" s="74"/>
-      <c r="CB53" s="74"/>
-      <c r="CC53" s="74"/>
-      <c r="CD53" s="74"/>
-      <c r="CE53" s="74"/>
-      <c r="CF53" s="74"/>
-      <c r="CG53" s="74"/>
-      <c r="CH53" s="74"/>
-      <c r="CI53" s="74"/>
-      <c r="CJ53" s="74"/>
-      <c r="CK53" s="74"/>
-      <c r="CL53" s="74"/>
-      <c r="CM53" s="74"/>
-      <c r="CN53" s="74"/>
-      <c r="CO53" s="74"/>
-      <c r="CP53" s="74"/>
-      <c r="CQ53" s="74"/>
-      <c r="CR53" s="74"/>
-      <c r="CS53" s="74"/>
-      <c r="CT53" s="74"/>
-      <c r="CU53" s="74"/>
-      <c r="CV53" s="74"/>
-      <c r="CW53" s="74"/>
-      <c r="CX53" s="74"/>
-      <c r="CY53" s="74"/>
-      <c r="CZ53" s="74"/>
-      <c r="DA53" s="74"/>
-      <c r="DB53" s="74"/>
-      <c r="DC53" s="74"/>
-      <c r="DD53" s="74"/>
-      <c r="DE53" s="74"/>
-      <c r="DF53" s="74"/>
-      <c r="DG53" s="74"/>
-      <c r="DH53" s="74"/>
-      <c r="DI53" s="74"/>
-      <c r="DJ53" s="74"/>
-      <c r="DK53" s="74"/>
-      <c r="DL53" s="74"/>
-      <c r="DM53" s="74"/>
-      <c r="DN53" s="74"/>
-      <c r="DO53" s="74"/>
-      <c r="DP53" s="74"/>
-      <c r="DQ53" s="74"/>
-      <c r="DR53" s="74"/>
-      <c r="DS53" s="74"/>
-      <c r="DT53" s="74"/>
-      <c r="DU53" s="74"/>
-      <c r="DV53" s="74"/>
-      <c r="DW53" s="74"/>
-      <c r="DX53" s="74"/>
-      <c r="DY53" s="74"/>
-      <c r="DZ53" s="74"/>
-      <c r="EA53" s="74"/>
-      <c r="EB53" s="74"/>
-      <c r="EC53" s="74"/>
-      <c r="ED53" s="74"/>
-      <c r="EE53" s="74"/>
-      <c r="EF53" s="74"/>
-      <c r="EG53" s="74"/>
-      <c r="EH53" s="74"/>
-      <c r="EI53" s="74"/>
-      <c r="EJ53" s="74"/>
-      <c r="EK53" s="74"/>
-      <c r="EL53" s="74"/>
-      <c r="EM53" s="74"/>
-      <c r="EN53" s="74"/>
-      <c r="EO53" s="74"/>
-      <c r="EP53" s="74"/>
-      <c r="EQ53" s="74"/>
-      <c r="ER53" s="74"/>
-      <c r="ES53" s="74"/>
-      <c r="ET53" s="74"/>
-      <c r="EU53" s="74"/>
-      <c r="EV53" s="74"/>
-      <c r="EW53" s="74"/>
-      <c r="EX53" s="74"/>
-      <c r="EY53" s="74"/>
-      <c r="EZ53" s="74"/>
-      <c r="FA53" s="74"/>
-      <c r="FB53" s="74"/>
-      <c r="FC53" s="74"/>
-      <c r="FD53" s="74"/>
-      <c r="FE53" s="74"/>
-      <c r="FF53" s="74"/>
-      <c r="FG53" s="74"/>
-      <c r="FH53" s="74"/>
-      <c r="FI53" s="74"/>
-      <c r="FJ53" s="74"/>
-      <c r="FK53" s="74"/>
-      <c r="FL53" s="74"/>
-      <c r="FM53" s="74"/>
-      <c r="FN53" s="74"/>
-      <c r="FO53" s="74"/>
-      <c r="FP53" s="74"/>
-      <c r="FQ53" s="74"/>
-      <c r="FR53" s="74"/>
-      <c r="FS53" s="74"/>
-      <c r="FT53" s="74"/>
-      <c r="FU53" s="74"/>
-      <c r="FV53" s="74"/>
-      <c r="FW53" s="74"/>
-      <c r="FX53" s="74"/>
-      <c r="FY53" s="74"/>
-      <c r="FZ53" s="74"/>
-      <c r="GA53" s="74"/>
-    </row>
-    <row r="54" spans="1:183" ht="142.5" customHeight="1">
+      <c r="AG53" s="75"/>
+      <c r="AH53" s="75"/>
+      <c r="AI53" s="75"/>
+      <c r="AJ53" s="75"/>
+      <c r="AK53" s="75"/>
+      <c r="AL53" s="75"/>
+      <c r="AM53" s="75"/>
+      <c r="AN53" s="75"/>
+      <c r="AO53" s="75"/>
+      <c r="AP53" s="75"/>
+      <c r="AQ53" s="75"/>
+      <c r="AR53" s="75"/>
+      <c r="AS53" s="75"/>
+      <c r="AT53" s="75"/>
+      <c r="AU53" s="75"/>
+      <c r="AV53" s="75"/>
+      <c r="AW53" s="75"/>
+      <c r="AX53" s="75"/>
+      <c r="AY53" s="75"/>
+      <c r="AZ53" s="75"/>
+      <c r="BA53" s="75"/>
+      <c r="BB53" s="75"/>
+      <c r="BC53" s="75"/>
+      <c r="BD53" s="75"/>
+      <c r="BE53" s="75"/>
+      <c r="BF53" s="75"/>
+      <c r="BG53" s="75"/>
+      <c r="BH53" s="75"/>
+      <c r="BI53" s="75"/>
+      <c r="BJ53" s="75"/>
+      <c r="BK53" s="75"/>
+      <c r="BL53" s="75"/>
+      <c r="BM53" s="75"/>
+      <c r="BN53" s="75"/>
+      <c r="BO53" s="75"/>
+      <c r="BP53" s="75"/>
+      <c r="BQ53" s="75"/>
+      <c r="BR53" s="75"/>
+      <c r="BS53" s="75"/>
+      <c r="BT53" s="75"/>
+      <c r="BU53" s="75"/>
+      <c r="BV53" s="75"/>
+      <c r="BW53" s="75"/>
+      <c r="BX53" s="75"/>
+      <c r="BY53" s="75"/>
+      <c r="BZ53" s="75"/>
+      <c r="CA53" s="75"/>
+      <c r="CB53" s="75"/>
+      <c r="CC53" s="75"/>
+      <c r="CD53" s="75"/>
+      <c r="CE53" s="75"/>
+      <c r="CF53" s="75"/>
+      <c r="CG53" s="75"/>
+      <c r="CH53" s="75"/>
+      <c r="CI53" s="75"/>
+      <c r="CJ53" s="75"/>
+      <c r="CK53" s="75"/>
+      <c r="CL53" s="75"/>
+      <c r="CM53" s="75"/>
+      <c r="CN53" s="75"/>
+      <c r="CO53" s="75"/>
+      <c r="CP53" s="75"/>
+      <c r="CQ53" s="75"/>
+      <c r="CR53" s="75"/>
+      <c r="CS53" s="75"/>
+      <c r="CT53" s="75"/>
+      <c r="CU53" s="75"/>
+      <c r="CV53" s="75"/>
+      <c r="CW53" s="75"/>
+      <c r="CX53" s="75"/>
+      <c r="CY53" s="75"/>
+      <c r="CZ53" s="75"/>
+      <c r="DA53" s="75"/>
+      <c r="DB53" s="75"/>
+      <c r="DC53" s="75"/>
+      <c r="DD53" s="75"/>
+      <c r="DE53" s="75"/>
+      <c r="DF53" s="75"/>
+      <c r="DG53" s="75"/>
+      <c r="DH53" s="75"/>
+      <c r="DI53" s="75"/>
+      <c r="DJ53" s="75"/>
+      <c r="DK53" s="75"/>
+      <c r="DL53" s="75"/>
+      <c r="DM53" s="75"/>
+      <c r="DN53" s="75"/>
+      <c r="DO53" s="75"/>
+      <c r="DP53" s="75"/>
+      <c r="DQ53" s="75"/>
+      <c r="DR53" s="75"/>
+      <c r="DS53" s="75"/>
+      <c r="DT53" s="75"/>
+      <c r="DU53" s="75"/>
+      <c r="DV53" s="75"/>
+      <c r="DW53" s="75"/>
+      <c r="DX53" s="75"/>
+      <c r="DY53" s="75"/>
+      <c r="DZ53" s="75"/>
+      <c r="EA53" s="75"/>
+      <c r="EB53" s="75"/>
+      <c r="EC53" s="75"/>
+      <c r="ED53" s="75"/>
+      <c r="EE53" s="75"/>
+      <c r="EF53" s="75"/>
+      <c r="EG53" s="75"/>
+      <c r="EH53" s="75"/>
+      <c r="EI53" s="75"/>
+      <c r="EJ53" s="75"/>
+      <c r="EK53" s="75"/>
+      <c r="EL53" s="75"/>
+      <c r="EM53" s="75"/>
+      <c r="EN53" s="75"/>
+      <c r="EO53" s="75"/>
+      <c r="EP53" s="75"/>
+      <c r="EQ53" s="75"/>
+      <c r="ER53" s="75"/>
+      <c r="ES53" s="75"/>
+      <c r="ET53" s="75"/>
+      <c r="EU53" s="75"/>
+      <c r="EV53" s="75"/>
+      <c r="EW53" s="75"/>
+      <c r="EX53" s="75"/>
+      <c r="EY53" s="75"/>
+      <c r="EZ53" s="75"/>
+      <c r="FA53" s="75"/>
+      <c r="FB53" s="75"/>
+      <c r="FC53" s="75"/>
+      <c r="FD53" s="75"/>
+      <c r="FE53" s="75"/>
+      <c r="FF53" s="75"/>
+      <c r="FG53" s="75"/>
+      <c r="FH53" s="75"/>
+      <c r="FI53" s="75"/>
+      <c r="FJ53" s="75"/>
+      <c r="FK53" s="75"/>
+      <c r="FL53" s="75"/>
+      <c r="FM53" s="75"/>
+      <c r="FN53" s="75"/>
+      <c r="FO53" s="75"/>
+      <c r="FP53" s="75"/>
+      <c r="FQ53" s="75"/>
+      <c r="FR53" s="75"/>
+      <c r="FS53" s="75"/>
+      <c r="FT53" s="75"/>
+      <c r="FU53" s="75"/>
+      <c r="FV53" s="75"/>
+      <c r="FW53" s="75"/>
+      <c r="FX53" s="75"/>
+      <c r="FY53" s="75"/>
+      <c r="FZ53" s="75"/>
+      <c r="GA53" s="75"/>
+    </row>
+    <row r="54" spans="1:183" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="64" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="111">
+      <c r="C54" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D54" s="112">
+      <c r="D54" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E54" s="108">
+      <c r="E54" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F54" s="109">
+      <c r="F54" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5573,11 +5575,11 @@
       <c r="N54" s="25"/>
       <c r="O54" s="24"/>
       <c r="P54" s="25"/>
-      <c r="Q54" s="108">
+      <c r="Q54" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R54" s="109">
+      <c r="R54" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5596,26 +5598,26 @@
       <c r="AE54" s="24"/>
       <c r="AF54" s="25"/>
     </row>
-    <row r="55" spans="1:183" ht="75" customHeight="1">
+    <row r="55" spans="1:183" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="60">
         <v>14</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="111">
+      <c r="C55" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D55" s="112">
+      <c r="D55" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E55" s="113">
+      <c r="E55" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F55" s="114">
+      <c r="F55" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5629,11 +5631,11 @@
       <c r="N55" s="22"/>
       <c r="O55" s="21"/>
       <c r="P55" s="22"/>
-      <c r="Q55" s="113">
+      <c r="Q55" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R55" s="114">
+      <c r="R55" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5652,26 +5654,26 @@
       <c r="AE55" s="21"/>
       <c r="AF55" s="22"/>
     </row>
-    <row r="56" spans="1:183" ht="160.5" customHeight="1">
+    <row r="56" spans="1:183" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="111">
+      <c r="C56" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D56" s="112">
+      <c r="D56" s="113">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E56" s="113">
+      <c r="E56" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F56" s="114">
+      <c r="F56" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5685,11 +5687,11 @@
       <c r="N56" s="25"/>
       <c r="O56" s="24"/>
       <c r="P56" s="25"/>
-      <c r="Q56" s="113">
+      <c r="Q56" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R56" s="114">
+      <c r="R56" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5708,26 +5710,26 @@
       <c r="AE56" s="24"/>
       <c r="AF56" s="25"/>
     </row>
-    <row r="57" spans="1:183" ht="77.25" customHeight="1">
+    <row r="57" spans="1:183" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="60">
         <v>15</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="111">
+      <c r="C57" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D57" s="112">
+      <c r="D57" s="113">
         <f t="shared" ref="D57:D65" si="38">F57+R57</f>
         <v>0</v>
       </c>
-      <c r="E57" s="113">
+      <c r="E57" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F57" s="114">
+      <c r="F57" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5741,11 +5743,11 @@
       <c r="N57" s="22"/>
       <c r="O57" s="21"/>
       <c r="P57" s="22"/>
-      <c r="Q57" s="113">
+      <c r="Q57" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R57" s="114">
+      <c r="R57" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5764,26 +5766,26 @@
       <c r="AE57" s="21"/>
       <c r="AF57" s="22"/>
     </row>
-    <row r="58" spans="1:183" ht="85.5" customHeight="1">
+    <row r="58" spans="1:183" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="66" t="s">
         <v>96</v>
       </c>
       <c r="B58" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="111">
+      <c r="C58" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D58" s="112">
+      <c r="D58" s="113">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E58" s="113">
+      <c r="E58" s="114">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F58" s="114">
+      <c r="F58" s="115">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5797,11 +5799,11 @@
       <c r="N58" s="22"/>
       <c r="O58" s="21"/>
       <c r="P58" s="22"/>
-      <c r="Q58" s="113">
+      <c r="Q58" s="114">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R58" s="114">
+      <c r="R58" s="115">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5820,26 +5822,26 @@
       <c r="AE58" s="21"/>
       <c r="AF58" s="22"/>
     </row>
-    <row r="59" spans="1:183" ht="127.5" customHeight="1">
-      <c r="A59" s="118" t="s">
+    <row r="59" spans="1:183" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="157" t="s">
         <v>125</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="111">
+      <c r="C59" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D59" s="112">
+      <c r="D59" s="113">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E59" s="108">
+      <c r="E59" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F59" s="109">
+      <c r="F59" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5853,11 +5855,11 @@
       <c r="N59" s="25"/>
       <c r="O59" s="24"/>
       <c r="P59" s="25"/>
-      <c r="Q59" s="108">
+      <c r="Q59" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R59" s="109">
+      <c r="R59" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5876,26 +5878,26 @@
       <c r="AE59" s="24"/>
       <c r="AF59" s="25"/>
     </row>
-    <row r="60" spans="1:183" ht="153.75" customHeight="1">
-      <c r="A60" s="118" t="s">
+    <row r="60" spans="1:183" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="157" t="s">
         <v>126</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="111">
+      <c r="C60" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D60" s="112">
+      <c r="D60" s="113">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E60" s="108">
+      <c r="E60" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F60" s="109">
+      <c r="F60" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5909,11 +5911,11 @@
       <c r="N60" s="25"/>
       <c r="O60" s="24"/>
       <c r="P60" s="25"/>
-      <c r="Q60" s="108">
+      <c r="Q60" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R60" s="109">
+      <c r="R60" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5932,26 +5934,26 @@
       <c r="AE60" s="24"/>
       <c r="AF60" s="25"/>
     </row>
-    <row r="61" spans="1:183" ht="65.25" customHeight="1">
-      <c r="A61" s="118" t="s">
+    <row r="61" spans="1:183" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="157" t="s">
         <v>127</v>
       </c>
       <c r="B61" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="111">
+      <c r="C61" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D61" s="112">
+      <c r="D61" s="113">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E61" s="108">
+      <c r="E61" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F61" s="109">
+      <c r="F61" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -5965,11 +5967,11 @@
       <c r="N61" s="25"/>
       <c r="O61" s="24"/>
       <c r="P61" s="25"/>
-      <c r="Q61" s="108">
+      <c r="Q61" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R61" s="109">
+      <c r="R61" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -5988,26 +5990,26 @@
       <c r="AE61" s="24"/>
       <c r="AF61" s="25"/>
     </row>
-    <row r="62" spans="1:183" ht="81.75" customHeight="1">
-      <c r="A62" s="118" t="s">
+    <row r="62" spans="1:183" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="157" t="s">
         <v>128</v>
       </c>
       <c r="B62" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="111">
+      <c r="C62" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D62" s="112">
+      <c r="D62" s="113">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E62" s="108">
+      <c r="E62" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F62" s="109">
+      <c r="F62" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -6021,11 +6023,11 @@
       <c r="N62" s="25"/>
       <c r="O62" s="24"/>
       <c r="P62" s="25"/>
-      <c r="Q62" s="108">
+      <c r="Q62" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R62" s="109">
+      <c r="R62" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6044,26 +6046,26 @@
       <c r="AE62" s="24"/>
       <c r="AF62" s="25"/>
     </row>
-    <row r="63" spans="1:183" ht="53.25" customHeight="1">
-      <c r="A63" s="118" t="s">
+    <row r="63" spans="1:183" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="157" t="s">
         <v>129</v>
       </c>
       <c r="B63" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="111">
+      <c r="C63" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D63" s="112">
+      <c r="D63" s="113">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E63" s="108">
+      <c r="E63" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F63" s="109">
+      <c r="F63" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -6077,11 +6079,11 @@
       <c r="N63" s="25"/>
       <c r="O63" s="24"/>
       <c r="P63" s="25"/>
-      <c r="Q63" s="108">
+      <c r="Q63" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R63" s="109">
+      <c r="R63" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6100,26 +6102,26 @@
       <c r="AE63" s="24"/>
       <c r="AF63" s="25"/>
     </row>
-    <row r="64" spans="1:183" ht="39" customHeight="1">
-      <c r="A64" s="118" t="s">
+    <row r="64" spans="1:183" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="157" t="s">
         <v>130</v>
       </c>
       <c r="B64" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="111">
+      <c r="C64" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D64" s="112">
+      <c r="D64" s="113">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E64" s="108">
+      <c r="E64" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F64" s="109">
+      <c r="F64" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -6133,11 +6135,11 @@
       <c r="N64" s="25"/>
       <c r="O64" s="24"/>
       <c r="P64" s="25"/>
-      <c r="Q64" s="108">
+      <c r="Q64" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R64" s="109">
+      <c r="R64" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6156,26 +6158,26 @@
       <c r="AE64" s="24"/>
       <c r="AF64" s="25"/>
     </row>
-    <row r="65" spans="1:32" ht="44.25" customHeight="1">
-      <c r="A65" s="118" t="s">
-        <v>131</v>
+    <row r="65" spans="1:32" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="67">
+        <v>44028</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="111">
+      <c r="C65" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D65" s="112">
+      <c r="D65" s="113">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E65" s="108">
+      <c r="E65" s="109">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F65" s="109">
+      <c r="F65" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -6189,11 +6191,11 @@
       <c r="N65" s="25"/>
       <c r="O65" s="24"/>
       <c r="P65" s="25"/>
-      <c r="Q65" s="108">
+      <c r="Q65" s="109">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R65" s="109">
+      <c r="R65" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -6212,8 +6214,8 @@
       <c r="AE65" s="24"/>
       <c r="AF65" s="25"/>
     </row>
-    <row r="66" spans="1:32" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A66" s="67"/>
+    <row r="66" spans="1:32" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="68"/>
       <c r="B66" s="45" t="s">
         <v>62</v>
       </c>
@@ -6338,8 +6340,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="140.25" customHeight="1">
-      <c r="A67" s="67">
+    <row r="67" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="68">
         <v>17</v>
       </c>
       <c r="B67" s="52" t="s">
@@ -6394,154 +6396,154 @@
       <c r="AE67" s="53"/>
       <c r="AF67" s="54"/>
     </row>
-    <row r="68" spans="1:32" ht="27" customHeight="1">
-      <c r="A68" s="68">
+    <row r="68" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="69">
         <v>18</v>
       </c>
       <c r="B68" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="106">
+      <c r="C68" s="107">
         <f>SUM(C69:C72)</f>
         <v>0</v>
       </c>
-      <c r="D68" s="107">
+      <c r="D68" s="108">
         <f t="shared" ref="D68:AF68" si="45">SUM(D69:D72)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="108">
+      <c r="E68" s="109">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F68" s="109">
+      <c r="F68" s="110">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="G68" s="110">
+      <c r="G68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="H68" s="107">
+      <c r="H68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="I68" s="110">
+      <c r="I68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="J68" s="107">
+      <c r="J68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="K68" s="110">
+      <c r="K68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="L68" s="107">
+      <c r="L68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M68" s="110">
+      <c r="M68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="N68" s="107">
+      <c r="N68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="O68" s="110">
+      <c r="O68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="P68" s="107">
+      <c r="P68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="108">
+      <c r="Q68" s="109">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="R68" s="109">
+      <c r="R68" s="110">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="S68" s="110">
+      <c r="S68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="T68" s="107">
+      <c r="T68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="U68" s="110">
+      <c r="U68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="V68" s="107">
+      <c r="V68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W68" s="110">
+      <c r="W68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="X68" s="107">
+      <c r="X68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Y68" s="110">
+      <c r="Y68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Z68" s="107">
+      <c r="Z68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AA68" s="110">
+      <c r="AA68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AB68" s="107">
+      <c r="AB68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AC68" s="110">
+      <c r="AC68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AD68" s="107">
+      <c r="AD68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE68" s="110">
+      <c r="AE68" s="111">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF68" s="107">
+      <c r="AF68" s="108">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A69" s="69" t="s">
+    <row r="69" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="70" t="s">
         <v>97</v>
       </c>
       <c r="B69" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="111">
+      <c r="C69" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D69" s="112">
+      <c r="D69" s="113">
         <f t="shared" ref="D69:D72" si="46">F69+R69</f>
         <v>0</v>
       </c>
-      <c r="E69" s="108">
+      <c r="E69" s="109">
         <f t="shared" ref="E69:E72" si="47">G69+I69+K69+M69+O69</f>
         <v>0</v>
       </c>
-      <c r="F69" s="109">
+      <c r="F69" s="110">
         <f t="shared" ref="F69:F72" si="48">H69+J69+L69+N69+P69</f>
         <v>0</v>
       </c>
@@ -6555,11 +6557,11 @@
       <c r="N69" s="25"/>
       <c r="O69" s="24"/>
       <c r="P69" s="25"/>
-      <c r="Q69" s="108">
+      <c r="Q69" s="109">
         <f t="shared" ref="Q69:Q72" si="49">S69+U69+W69+Y69+AA69</f>
         <v>0</v>
       </c>
-      <c r="R69" s="109">
+      <c r="R69" s="110">
         <f t="shared" ref="R69:R72" si="50">T69+V69+X69+Z69+AB69</f>
         <v>0</v>
       </c>
@@ -6578,26 +6580,26 @@
       <c r="AE69" s="24"/>
       <c r="AF69" s="25"/>
     </row>
-    <row r="70" spans="1:32" ht="26.25" customHeight="1">
-      <c r="A70" s="69" t="s">
+    <row r="70" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="70" t="s">
         <v>98</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="111">
+      <c r="C70" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D70" s="112">
+      <c r="D70" s="113">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="E70" s="108">
+      <c r="E70" s="109">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F70" s="109">
+      <c r="F70" s="110">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -6611,11 +6613,11 @@
       <c r="N70" s="25"/>
       <c r="O70" s="24"/>
       <c r="P70" s="25"/>
-      <c r="Q70" s="108">
+      <c r="Q70" s="109">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="R70" s="109">
+      <c r="R70" s="110">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -6634,26 +6636,26 @@
       <c r="AE70" s="24"/>
       <c r="AF70" s="25"/>
     </row>
-    <row r="71" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A71" s="69" t="s">
+    <row r="71" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="70" t="s">
         <v>99</v>
       </c>
       <c r="B71" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="111">
+      <c r="C71" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D71" s="112">
+      <c r="D71" s="113">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="E71" s="108">
+      <c r="E71" s="109">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F71" s="109">
+      <c r="F71" s="110">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -6667,11 +6669,11 @@
       <c r="N71" s="25"/>
       <c r="O71" s="24"/>
       <c r="P71" s="25"/>
-      <c r="Q71" s="108">
+      <c r="Q71" s="109">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="R71" s="109">
+      <c r="R71" s="110">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -6690,26 +6692,26 @@
       <c r="AE71" s="24"/>
       <c r="AF71" s="25"/>
     </row>
-    <row r="72" spans="1:32" ht="25.5" customHeight="1">
-      <c r="A72" s="69" t="s">
+    <row r="72" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="70" t="s">
         <v>100</v>
       </c>
       <c r="B72" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="111">
+      <c r="C72" s="112">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D72" s="112">
+      <c r="D72" s="113">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="E72" s="108">
+      <c r="E72" s="109">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F72" s="109">
+      <c r="F72" s="110">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -6723,11 +6725,11 @@
       <c r="N72" s="25"/>
       <c r="O72" s="24"/>
       <c r="P72" s="25"/>
-      <c r="Q72" s="108">
+      <c r="Q72" s="109">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="R72" s="109">
+      <c r="R72" s="110">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -6746,112 +6748,112 @@
       <c r="AE72" s="24"/>
       <c r="AF72" s="25"/>
     </row>
-    <row r="73" spans="1:32" ht="97.5" customHeight="1">
-      <c r="A73" s="156" t="s">
+    <row r="73" spans="1:32" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="156"/>
-      <c r="C73" s="156"/>
-      <c r="D73" s="156"/>
-      <c r="E73" s="156"/>
-      <c r="F73" s="156"/>
-      <c r="G73" s="156"/>
-      <c r="H73" s="156"/>
-      <c r="I73" s="156"/>
-      <c r="J73" s="156"/>
-      <c r="K73" s="156"/>
-      <c r="L73" s="156"/>
-      <c r="M73" s="156"/>
-      <c r="N73" s="156"/>
-      <c r="O73" s="156"/>
-      <c r="P73" s="156"/>
-      <c r="Q73" s="156"/>
-      <c r="R73" s="156"/>
-      <c r="S73" s="156"/>
-      <c r="T73" s="156"/>
-      <c r="U73" s="156"/>
-      <c r="V73" s="156"/>
-      <c r="W73" s="156"/>
-      <c r="X73" s="156"/>
-      <c r="Y73" s="156"/>
-      <c r="Z73" s="156"/>
-      <c r="AA73" s="156"/>
-      <c r="AB73" s="156"/>
-      <c r="AC73" s="156"/>
-      <c r="AD73" s="156"/>
-      <c r="AE73" s="156"/>
-      <c r="AF73" s="156"/>
-    </row>
-    <row r="74" spans="1:32" ht="24" customHeight="1"/>
-    <row r="75" spans="1:32" ht="26.25" customHeight="1">
-      <c r="A75" s="79"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="82"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="82"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="82"/>
-      <c r="K75" s="81"/>
-      <c r="L75" s="82"/>
-      <c r="M75" s="81"/>
-      <c r="N75" s="82"/>
-      <c r="O75" s="81"/>
-      <c r="P75" s="82"/>
-      <c r="Q75" s="81"/>
-      <c r="R75" s="82"/>
-      <c r="S75" s="81"/>
-      <c r="T75" s="82"/>
-      <c r="U75" s="81"/>
-      <c r="V75" s="82"/>
-      <c r="W75" s="81"/>
-      <c r="X75" s="82"/>
-      <c r="Y75" s="81"/>
-      <c r="Z75" s="82"/>
-      <c r="AA75" s="81"/>
-      <c r="AB75" s="82"/>
-      <c r="AC75" s="81"/>
-      <c r="AD75" s="82"/>
-      <c r="AE75" s="81"/>
-      <c r="AF75" s="82"/>
-    </row>
-    <row r="76" spans="1:32" ht="26.25" customHeight="1">
-      <c r="A76" s="119" t="s">
+      <c r="B73" s="155"/>
+      <c r="C73" s="155"/>
+      <c r="D73" s="155"/>
+      <c r="E73" s="155"/>
+      <c r="F73" s="155"/>
+      <c r="G73" s="155"/>
+      <c r="H73" s="155"/>
+      <c r="I73" s="155"/>
+      <c r="J73" s="155"/>
+      <c r="K73" s="155"/>
+      <c r="L73" s="155"/>
+      <c r="M73" s="155"/>
+      <c r="N73" s="155"/>
+      <c r="O73" s="155"/>
+      <c r="P73" s="155"/>
+      <c r="Q73" s="155"/>
+      <c r="R73" s="155"/>
+      <c r="S73" s="155"/>
+      <c r="T73" s="155"/>
+      <c r="U73" s="155"/>
+      <c r="V73" s="155"/>
+      <c r="W73" s="155"/>
+      <c r="X73" s="155"/>
+      <c r="Y73" s="155"/>
+      <c r="Z73" s="155"/>
+      <c r="AA73" s="155"/>
+      <c r="AB73" s="155"/>
+      <c r="AC73" s="155"/>
+      <c r="AD73" s="155"/>
+      <c r="AE73" s="155"/>
+      <c r="AF73" s="155"/>
+    </row>
+    <row r="74" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="80"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="83"/>
+      <c r="K75" s="82"/>
+      <c r="L75" s="83"/>
+      <c r="M75" s="82"/>
+      <c r="N75" s="83"/>
+      <c r="O75" s="82"/>
+      <c r="P75" s="83"/>
+      <c r="Q75" s="82"/>
+      <c r="R75" s="83"/>
+      <c r="S75" s="82"/>
+      <c r="T75" s="83"/>
+      <c r="U75" s="82"/>
+      <c r="V75" s="83"/>
+      <c r="W75" s="82"/>
+      <c r="X75" s="83"/>
+      <c r="Y75" s="82"/>
+      <c r="Z75" s="83"/>
+      <c r="AA75" s="82"/>
+      <c r="AB75" s="83"/>
+      <c r="AC75" s="82"/>
+      <c r="AD75" s="83"/>
+      <c r="AE75" s="82"/>
+      <c r="AF75" s="83"/>
+    </row>
+    <row r="76" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B76" s="119"/>
-      <c r="C76" s="119"/>
-      <c r="D76" s="119"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="119"/>
-      <c r="G76" s="119"/>
-      <c r="H76" s="119"/>
-      <c r="I76" s="119"/>
-      <c r="J76" s="119"/>
-      <c r="K76" s="119"/>
-      <c r="L76" s="119"/>
-      <c r="M76" s="119"/>
-      <c r="N76" s="119"/>
-      <c r="O76" s="119"/>
-      <c r="P76" s="119"/>
-      <c r="Q76" s="119"/>
-      <c r="R76" s="119"/>
-      <c r="S76" s="119"/>
-      <c r="T76" s="119"/>
-      <c r="U76" s="119"/>
-      <c r="V76" s="119"/>
-      <c r="W76" s="119"/>
-      <c r="X76" s="119"/>
-      <c r="Y76" s="119"/>
-      <c r="Z76" s="119"/>
-      <c r="AA76" s="119"/>
-      <c r="AB76" s="119"/>
-      <c r="AC76" s="119"/>
-      <c r="AD76" s="119"/>
-      <c r="AE76" s="119"/>
-      <c r="AF76" s="119"/>
+      <c r="B76" s="118"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="118"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="118"/>
+      <c r="H76" s="118"/>
+      <c r="I76" s="118"/>
+      <c r="J76" s="118"/>
+      <c r="K76" s="118"/>
+      <c r="L76" s="118"/>
+      <c r="M76" s="118"/>
+      <c r="N76" s="118"/>
+      <c r="O76" s="118"/>
+      <c r="P76" s="118"/>
+      <c r="Q76" s="118"/>
+      <c r="R76" s="118"/>
+      <c r="S76" s="118"/>
+      <c r="T76" s="118"/>
+      <c r="U76" s="118"/>
+      <c r="V76" s="118"/>
+      <c r="W76" s="118"/>
+      <c r="X76" s="118"/>
+      <c r="Y76" s="118"/>
+      <c r="Z76" s="118"/>
+      <c r="AA76" s="118"/>
+      <c r="AB76" s="118"/>
+      <c r="AC76" s="118"/>
+      <c r="AD76" s="118"/>
+      <c r="AE76" s="118"/>
+      <c r="AF76" s="118"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -7051,7 +7053,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H58 J58 L58 N58 P58 T58 V58 X58 Z58 AB58 AD58 AF58">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND(G58=SUM(G59:G65), H58&lt;&gt;SUM(G59:G65))</formula>
+      <formula>AND(G58=SUM(G59:G65), H58&lt;&gt;SUM(H59:H65))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
